--- a/Users.xlsx
+++ b/Users.xlsx
@@ -469,20 +469,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Python Programmer</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5883471529</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>998948512404</t>
-        </is>
-      </c>
+        <v>1002257010</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PythonBackendProgrammer</t>
+          <t>Android_programmer_04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -494,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45683.53527276172</v>
+        <v>45687.79663891433</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45683.5354464524</v>
+        <v>45687.79733703894</v>
       </c>
     </row>
   </sheetData>
